--- a/xlsx/反恐战争_intext.xlsx
+++ b/xlsx/反恐战争_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="718">
   <si>
     <t>反恐战争</t>
   </si>
@@ -29,13 +29,13 @@
     <t>九一一袭击事件</t>
   </si>
   <si>
-    <t>政策_政策_美國_反恐战争</t>
+    <t>政策_政策_美国_反恐战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%B0%E7%88%AD_(2001%E5%B9%B4)</t>
   </si>
   <si>
-    <t>阿富汗戰爭 (2001年)</t>
+    <t>阿富汗战争 (2001年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>伊拉克戰爭</t>
+    <t>伊拉克战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%A0%BC%E9%81%94</t>
   </si>
   <si>
-    <t>巴格達</t>
+    <t>巴格达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BD%A6%E7%82%B8%E5%BC%B9</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
   </si>
   <si>
-    <t>中東</t>
+    <t>中东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>南亞</t>
+    <t>南亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>東南亞</t>
+    <t>东南亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E4%B9%8B%E8%A7%92</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%B4%84%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>北大西洋公約組織</t>
+    <t>北大西洋公约组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -263,19 +263,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E8%88%87%E8%B5%AB%E5%A1%9E%E5%93%A5%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>波士尼亞與赫塞哥維納</t>
+    <t>波士尼亚与赫塞哥维纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
@@ -431,13 +431,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬里共和國</t>
+    <t>马里共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
@@ -473,19 +473,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
   </si>
   <si>
-    <t>卡達</t>
+    <t>卡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A4%E5%8A%A0</t>
@@ -545,19 +545,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -575,19 +575,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A7%90%E9%98%BF%E5%AF%8C%E6%B1%97%E5%9C%8B%E9%9A%9B%E7%B6%AD%E5%92%8C%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>駐阿富汗國際維和部隊</t>
+    <t>驻阿富汗国际维和部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%96%B9%E8%81%94%E7%9B%9F_(%E9%98%BF%E5%AF%8C%E6%B1%97)</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%9C%E5%B0%BC%E6%B4%BE</t>
   </si>
   <si>
-    <t>遜尼派</t>
+    <t>逊尼派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9C%B0%E7%BB%84%E7%BB%87</t>
@@ -629,13 +629,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>伊斯蘭國</t>
+    <t>伊斯兰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%AA%E6%96%AF%E6%8B%89%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>努斯拉陣線</t>
+    <t>努斯拉阵线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%A9%AC%E6%96%AF</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E4%BC%8A%E6%96%AF%E8%98%AD%E8%81%96%E6%88%B0%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>巴勒斯坦伊斯蘭聖戰組織</t>
+    <t>巴勒斯坦伊斯兰圣战组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%A1%94%E8%B5%AB</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B%E4%BC%8A%E6%96%AF%E8%98%AD%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>烏茲別克伊斯蘭運動</t>
+    <t>乌兹别克伊斯兰运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%9C%A3%E6%88%98%E8%81%94%E7%9B%9F</t>
@@ -677,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%99%94%E8%AA%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>虔誠軍</t>
+    <t>虔诚军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%8D%A1%E5%B0%BC%E7%BD%91%E7%BB%9C</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E6%95%99%E7%A5%88%E7%A6%B1%E5%9C%98</t>
   </si>
   <si>
-    <t>回教祈禱團</t>
+    <t>回教祈祷团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E6%B2%99%E8%80%B6%E5%A4%AB</t>
@@ -701,19 +701,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E4%BA%BA%E6%B0%91%E8%81%96%E6%88%B0%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>伊朗人民聖戰組織</t>
+    <t>伊朗人民圣战组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2%E9%85%8B%E9%95%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>高加索酋長國</t>
+    <t>高加索酋长国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E7%AA%81%E5%8E%A5%E6%96%AF%E5%9D%A6%E4%BC%8A%E6%96%AF%E8%98%AD%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>東突厥斯坦伊斯蘭運動</t>
+    <t>东突厥斯坦伊斯兰运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%8D%AB%E5%A3%AB</t>
@@ -731,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%BC%E7%BE%85%E7%8F%8A_(%E4%BC%8A%E6%96%AF%E8%98%AD%E7%B5%84%E7%B9%94)</t>
   </si>
   <si>
-    <t>呼羅珊 (伊斯蘭組織)</t>
+    <t>呼罗珊 (伊斯兰组织)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E4%BA%BA%E6%B0%91%E9%98%B5%E7%BA%BF</t>
@@ -755,37 +755,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E8%A5%BF%E5%A5%88%E7%9C%81</t>
   </si>
   <si>
-    <t>伊斯蘭國西奈省</t>
+    <t>伊斯兰国西奈省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%85%8B%E8%96%A9%E7%83%88%E5%A3%AB%E6%97%85</t>
   </si>
   <si>
-    <t>阿克薩烈士旅</t>
+    <t>阿克萨烈士旅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E8%A5%BF%E9%9D%9E%E7%9C%81</t>
   </si>
   <si>
-    <t>伊斯蘭國西非省</t>
+    <t>伊斯兰国西非省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%B3%95%E5%BA%AD%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>伊斯蘭法庭聯盟</t>
+    <t>伊斯兰法庭联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%88%B0%E8%80%85</t>
   </si>
   <si>
-    <t>聖戰者</t>
+    <t>圣战者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%80%E8%91%89%E6%B4%BE</t>
   </si>
   <si>
-    <t>什葉派</t>
+    <t>什叶派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
@@ -797,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%B2%99%E7%88%BE%C2%B7%E9%98%BF%E8%96%A9%E5%BE%B7</t>
   </si>
   <si>
-    <t>巴沙爾·阿薩德</t>
+    <t>巴沙尔·阿萨德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A%E5%A4%8D%E5%85%B4%E5%85%9A</t>
@@ -809,13 +809,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E9%9D%A9%E5%91%BD%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>伊斯蘭革命衛隊</t>
+    <t>伊斯兰革命卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E4%B8%BB%E9%BB%A8</t>
   </si>
   <si>
-    <t>真主黨</t>
+    <t>真主党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%AF%94%E5%93%88</t>
@@ -833,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E8%B5%AB%E8%BF%AA%E8%BB%8D</t>
   </si>
   <si>
-    <t>邁赫迪軍</t>
+    <t>迈赫迪军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E5%A4%8D%E5%85%B4%E5%85%9A%E6%94%BF%E6%9D%83_(1968%E2%80%932003)</t>
@@ -845,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E8%88%88%E9%BB%A8</t>
   </si>
   <si>
-    <t>復興黨</t>
+    <t>复兴党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -863,9 +863,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
@@ -893,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E9%81%94%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>蓋達組織</t>
+    <t>盖达组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
@@ -911,13 +908,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E6%B0%93%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>流氓國家</t>
+    <t>流氓国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%95%97%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>失敗國家</t>
+    <t>失败国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A7%84%E6%A8%A1%E6%9D%80%E4%BC%A4%E6%80%A7%E6%AD%A6%E5%99%A8</t>
@@ -929,13 +926,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%96%A9%E7%91%AA%C2%B7%E8%B3%93%C2%B7%E6%8B%89%E7%99%BB</t>
   </si>
   <si>
-    <t>奧薩瑪·賓·拉登</t>
+    <t>奥萨玛·宾·拉登</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%B8%83%E5%B8%8C</t>
@@ -947,43 +944,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第三次世界大戰</t>
+    <t>第三次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>伊斯蘭恐怖主義</t>
+    <t>伊斯兰恐怖主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>伊斯蘭法西斯主義</t>
+    <t>伊斯兰法西斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4%E4%BB%A5%E9%BB%8E%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>2006年以黎衝突</t>
+    <t>2006年以黎冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%96%A9%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>加薩戰爭</t>
+    <t>加萨战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%91%E6%9F%B1%E8%A1%8C%E5%8A%A8</t>
@@ -1007,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>敘利亞內戰</t>
+    <t>叙利亚内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E5%86%85%E6%88%98</t>
@@ -1019,13 +1016,13 @@
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E4%BC%8A%E6%8B%89%E5%85%8B%E5%8C%97%E9%83%A8%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>2014年伊拉克北部內戰</t>
+    <t>2014年伊拉克北部内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%B7%B4%E9%A6%AC</t>
   </si>
   <si>
-    <t>歐巴馬</t>
+    <t>欧巴马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E7%B4%A2%E5%BC%95</t>
@@ -1049,7 +1046,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -1073,7 +1070,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -1097,9 +1094,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
   </si>
   <si>
-    <t>冷战</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
   </si>
   <si>
@@ -1121,13 +1115,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -1157,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -1193,7 +1187,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -1229,15 +1223,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
   </si>
   <si>
-    <t>美国总统</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
   </si>
   <si>
@@ -1259,7 +1250,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -1301,13 +1292,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -1319,13 +1310,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -1373,7 +1364,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -1385,7 +1376,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -1427,7 +1418,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -1439,7 +1430,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -1475,7 +1466,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -1487,13 +1478,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -1505,13 +1496,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -1523,13 +1514,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -1577,7 +1568,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -1589,13 +1580,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -1607,7 +1598,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -1619,7 +1610,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -1631,13 +1622,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -1661,7 +1652,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -1733,15 +1724,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -1751,7 +1739,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1805,7 +1793,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -1841,7 +1829,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -1859,7 +1847,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -1895,19 +1883,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -1919,7 +1907,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -1937,9 +1925,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>戰爭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E5%8F%B8%E8%B5%B7%E4%B9%89</t>
   </si>
   <si>
@@ -1967,7 +1952,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>猶他戰爭</t>
+    <t>犹他战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%98%E4%BA%89</t>
@@ -1985,7 +1970,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%8D%B0%E7%AC%AC%E5%AE%89%E6%88%98%E4%BA%89</t>
@@ -2021,7 +2006,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美墨戰爭</t>
+    <t>美墨战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E9%B8%A6%E7%89%87%E6%88%98%E4%BA%89</t>
@@ -2033,13 +2018,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A6%8F%E7%88%BE%E6%91%A9%E6%B2%99%E9%81%A0%E5%BE%81</t>
   </si>
   <si>
-    <t>美國福爾摩沙遠征</t>
+    <t>美国福尔摩沙远征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E6%9C%AA%E6%B4%8B%E6%93%BE</t>
   </si>
   <si>
-    <t>辛未洋擾</t>
+    <t>辛未洋扰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%98%E4%BA%89</t>
@@ -2063,7 +2048,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%94%E9%A0%98%E6%B5%B7%E5%9C%B0</t>
   </si>
   <si>
-    <t>美國佔領海地</t>
+    <t>美国佔领海地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -2087,13 +2072,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E6%A0%BC%E6%9E%97%E7%B4%8D%E9%81%94</t>
   </si>
   <si>
-    <t>入侵格林納達</t>
+    <t>入侵格林纳达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>黎巴嫩內戰</t>
+    <t>黎巴嫩内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%86%85%E6%88%98</t>
@@ -2117,25 +2102,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A5%E4%BE%B5%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>美國入侵巴拿馬</t>
+    <t>美国入侵巴拿马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>海灣戰爭</t>
+    <t>海湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%8A%A0%E8%BF%AA%E6%B2%99%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>摩加迪沙之戰</t>
+    <t>摩加迪沙之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯尼亞戰爭</t>
+    <t>波斯尼亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0%E4%B9%8B%E7%8B%90%E8%A1%8C%E5%8A%A8</t>
@@ -2147,7 +2132,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>科索沃戰爭</t>
+    <t>科索沃战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BA%A6%E8%BD%B0%E7%82%B8%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB</t>
@@ -2159,9 +2144,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%98%E4%BA%89</t>
   </si>
   <si>
-    <t>伊拉克战争</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E8%A5%BF%E5%8C%97%E9%83%A8%E6%88%98%E4%BA%89</t>
   </si>
   <si>
@@ -2171,25 +2153,22 @@
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E5%9C%A8%E6%95%98%E5%88%A9%E4%BA%9E%E9%87%9D%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E7%A9%BA%E8%A5%B2</t>
   </si>
   <si>
-    <t>2014年在敘利亞針對伊斯蘭國的空襲</t>
+    <t>2014年在叙利亚针对伊斯兰国的空袭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E8%BB%8D%E4%BA%8B%E6%89%93%E6%93%8A</t>
   </si>
   <si>
-    <t>對伊斯蘭國的軍事打擊</t>
+    <t>对伊斯兰国的军事打击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%88%B0%E7%88%AD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國戰爭列表</t>
+    <t>美国战争列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>美國軍事</t>
   </si>
 </sst>
 </file>
@@ -6620,7 +6599,7 @@
         <v>281</v>
       </c>
       <c r="F141" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="G141" t="n">
         <v>23</v>
@@ -6646,10 +6625,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s">
         <v>283</v>
-      </c>
-      <c r="F142" t="s">
-        <v>284</v>
       </c>
       <c r="G142" t="n">
         <v>4</v>
@@ -6675,10 +6654,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" t="s">
         <v>285</v>
-      </c>
-      <c r="F143" t="s">
-        <v>286</v>
       </c>
       <c r="G143" t="n">
         <v>27</v>
@@ -6704,10 +6683,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" t="s">
         <v>287</v>
-      </c>
-      <c r="F144" t="s">
-        <v>288</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6733,10 +6712,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>288</v>
+      </c>
+      <c r="F145" t="s">
         <v>289</v>
-      </c>
-      <c r="F145" t="s">
-        <v>290</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6762,10 +6741,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>290</v>
+      </c>
+      <c r="F146" t="s">
         <v>291</v>
-      </c>
-      <c r="F146" t="s">
-        <v>292</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6791,10 +6770,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" t="s">
         <v>293</v>
-      </c>
-      <c r="F147" t="s">
-        <v>294</v>
       </c>
       <c r="G147" t="n">
         <v>4</v>
@@ -6820,10 +6799,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>294</v>
+      </c>
+      <c r="F148" t="s">
         <v>295</v>
-      </c>
-      <c r="F148" t="s">
-        <v>296</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6849,10 +6828,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>296</v>
+      </c>
+      <c r="F149" t="s">
         <v>297</v>
-      </c>
-      <c r="F149" t="s">
-        <v>298</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6878,10 +6857,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>298</v>
+      </c>
+      <c r="F150" t="s">
         <v>299</v>
-      </c>
-      <c r="F150" t="s">
-        <v>300</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6936,10 +6915,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
         <v>301</v>
-      </c>
-      <c r="F152" t="s">
-        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6965,10 +6944,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
         <v>303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6994,10 +6973,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" t="s">
         <v>305</v>
-      </c>
-      <c r="F154" t="s">
-        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7023,10 +7002,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>306</v>
+      </c>
+      <c r="F155" t="s">
         <v>307</v>
-      </c>
-      <c r="F155" t="s">
-        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -7052,10 +7031,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>308</v>
+      </c>
+      <c r="F156" t="s">
         <v>309</v>
-      </c>
-      <c r="F156" t="s">
-        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7081,10 +7060,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>310</v>
+      </c>
+      <c r="F157" t="s">
         <v>311</v>
-      </c>
-      <c r="F157" t="s">
-        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -7110,10 +7089,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>312</v>
+      </c>
+      <c r="F158" t="s">
         <v>313</v>
-      </c>
-      <c r="F158" t="s">
-        <v>314</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7139,10 +7118,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>314</v>
+      </c>
+      <c r="F159" t="s">
         <v>315</v>
-      </c>
-      <c r="F159" t="s">
-        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7168,10 +7147,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>316</v>
+      </c>
+      <c r="F160" t="s">
         <v>317</v>
-      </c>
-      <c r="F160" t="s">
-        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7197,10 +7176,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>318</v>
+      </c>
+      <c r="F161" t="s">
         <v>319</v>
-      </c>
-      <c r="F161" t="s">
-        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7226,10 +7205,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>320</v>
+      </c>
+      <c r="F162" t="s">
         <v>321</v>
-      </c>
-      <c r="F162" t="s">
-        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7255,10 +7234,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>322</v>
+      </c>
+      <c r="F163" t="s">
         <v>323</v>
-      </c>
-      <c r="F163" t="s">
-        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7284,10 +7263,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>324</v>
+      </c>
+      <c r="F164" t="s">
         <v>325</v>
-      </c>
-      <c r="F164" t="s">
-        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7313,10 +7292,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>326</v>
+      </c>
+      <c r="F165" t="s">
         <v>327</v>
-      </c>
-      <c r="F165" t="s">
-        <v>328</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7342,10 +7321,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>328</v>
+      </c>
+      <c r="F166" t="s">
         <v>329</v>
-      </c>
-      <c r="F166" t="s">
-        <v>330</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -7371,10 +7350,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>330</v>
+      </c>
+      <c r="F167" t="s">
         <v>331</v>
-      </c>
-      <c r="F167" t="s">
-        <v>332</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7400,10 +7379,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>332</v>
+      </c>
+      <c r="F168" t="s">
         <v>333</v>
-      </c>
-      <c r="F168" t="s">
-        <v>334</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7429,10 +7408,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>334</v>
+      </c>
+      <c r="F169" t="s">
         <v>335</v>
-      </c>
-      <c r="F169" t="s">
-        <v>336</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7458,10 +7437,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>336</v>
+      </c>
+      <c r="F170" t="s">
         <v>337</v>
-      </c>
-      <c r="F170" t="s">
-        <v>338</v>
       </c>
       <c r="G170" t="n">
         <v>4</v>
@@ -7487,10 +7466,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>338</v>
+      </c>
+      <c r="F171" t="s">
         <v>339</v>
-      </c>
-      <c r="F171" t="s">
-        <v>340</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
@@ -7516,10 +7495,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>340</v>
+      </c>
+      <c r="F172" t="s">
         <v>341</v>
-      </c>
-      <c r="F172" t="s">
-        <v>342</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7545,10 +7524,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>342</v>
+      </c>
+      <c r="F173" t="s">
         <v>343</v>
-      </c>
-      <c r="F173" t="s">
-        <v>344</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7574,10 +7553,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>344</v>
+      </c>
+      <c r="F174" t="s">
         <v>345</v>
-      </c>
-      <c r="F174" t="s">
-        <v>346</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7603,10 +7582,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>346</v>
+      </c>
+      <c r="F175" t="s">
         <v>347</v>
-      </c>
-      <c r="F175" t="s">
-        <v>348</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7632,10 +7611,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>348</v>
+      </c>
+      <c r="F176" t="s">
         <v>349</v>
-      </c>
-      <c r="F176" t="s">
-        <v>350</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7661,10 +7640,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>350</v>
+      </c>
+      <c r="F177" t="s">
         <v>351</v>
-      </c>
-      <c r="F177" t="s">
-        <v>352</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7690,10 +7669,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>352</v>
+      </c>
+      <c r="F178" t="s">
         <v>353</v>
-      </c>
-      <c r="F178" t="s">
-        <v>354</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7719,10 +7698,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>354</v>
+      </c>
+      <c r="F179" t="s">
         <v>355</v>
-      </c>
-      <c r="F179" t="s">
-        <v>356</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7748,10 +7727,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>356</v>
+      </c>
+      <c r="F180" t="s">
         <v>357</v>
-      </c>
-      <c r="F180" t="s">
-        <v>358</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7777,10 +7756,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F181" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7806,10 +7785,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F182" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -7835,10 +7814,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F183" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7864,10 +7843,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F184" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -7893,10 +7872,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F185" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7922,10 +7901,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F186" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7951,10 +7930,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F187" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7980,10 +7959,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F188" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G188" t="n">
         <v>3</v>
@@ -8009,10 +7988,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F189" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8038,10 +8017,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F190" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G190" t="n">
         <v>5</v>
@@ -8067,10 +8046,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F191" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8096,10 +8075,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F192" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8125,10 +8104,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F193" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8154,10 +8133,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F194" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8183,10 +8162,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F195" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8212,10 +8191,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F196" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8241,10 +8220,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F197" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8270,10 +8249,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F198" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8299,10 +8278,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F199" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8328,10 +8307,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F200" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8357,10 +8336,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F201" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8386,10 +8365,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F202" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8415,10 +8394,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F203" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8444,10 +8423,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F204" t="s">
-        <v>406</v>
+        <v>305</v>
       </c>
       <c r="G204" t="n">
         <v>3</v>
@@ -8473,10 +8452,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F205" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8502,10 +8481,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F206" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8531,10 +8510,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F207" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8560,10 +8539,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F208" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8589,10 +8568,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F209" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8618,10 +8597,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F210" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8647,10 +8626,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F211" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8676,10 +8655,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F212" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8705,10 +8684,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F213" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8734,10 +8713,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F214" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8763,10 +8742,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F215" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G215" t="n">
         <v>3</v>
@@ -8792,10 +8771,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F216" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8821,10 +8800,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F217" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8850,10 +8829,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F218" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8879,10 +8858,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F219" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8908,10 +8887,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F220" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8937,10 +8916,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F221" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8966,10 +8945,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F222" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8995,10 +8974,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F223" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9024,10 +9003,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F224" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9053,10 +9032,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F225" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G225" t="n">
         <v>3</v>
@@ -9082,10 +9061,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F226" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9111,10 +9090,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F227" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9140,10 +9119,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F228" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G228" t="n">
         <v>4</v>
@@ -9169,10 +9148,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F229" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -9198,10 +9177,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F230" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9227,10 +9206,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F231" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9256,10 +9235,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F232" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9285,10 +9264,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F233" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9314,10 +9293,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F234" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9343,10 +9322,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F235" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9372,10 +9351,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F236" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9401,10 +9380,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F237" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9430,10 +9409,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F238" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9459,10 +9438,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F239" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9488,10 +9467,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F240" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9517,10 +9496,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F241" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G241" t="n">
         <v>3</v>
@@ -9546,10 +9525,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F242" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9575,10 +9554,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F243" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9604,10 +9583,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F244" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9633,10 +9612,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F245" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9662,10 +9641,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F246" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9691,10 +9670,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F247" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9720,10 +9699,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F248" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9749,10 +9728,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F249" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9778,10 +9757,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F250" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9807,10 +9786,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F251" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9836,10 +9815,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F252" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -9865,10 +9844,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F253" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9894,10 +9873,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F254" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9923,10 +9902,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F255" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9952,10 +9931,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F256" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9981,10 +9960,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F257" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10010,10 +9989,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F258" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10039,10 +10018,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F259" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -10068,10 +10047,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F260" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10097,10 +10076,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F261" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10126,10 +10105,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F262" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10155,10 +10134,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F263" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10184,10 +10163,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F264" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10213,10 +10192,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F265" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10242,10 +10221,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F266" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10271,10 +10250,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F267" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10300,10 +10279,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F268" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10329,10 +10308,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F269" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10358,10 +10337,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F270" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10387,10 +10366,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F271" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10416,10 +10395,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F272" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10445,10 +10424,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F273" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10474,10 +10453,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F274" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10503,10 +10482,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F275" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G275" t="n">
         <v>3</v>
@@ -10532,10 +10511,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F276" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10561,10 +10540,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F277" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -10590,10 +10569,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F278" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10619,10 +10598,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F279" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10648,10 +10627,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F280" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -10677,10 +10656,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F281" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10706,10 +10685,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F282" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10735,10 +10714,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F283" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G283" t="n">
         <v>4</v>
@@ -10764,10 +10743,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F284" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G284" t="n">
         <v>3</v>
@@ -10793,10 +10772,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F285" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10822,10 +10801,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F286" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10851,10 +10830,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F287" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10880,10 +10859,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F288" t="s">
-        <v>574</v>
+        <v>517</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10909,10 +10888,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F289" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10938,10 +10917,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F290" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10967,10 +10946,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F291" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10996,10 +10975,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F292" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11025,10 +11004,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F293" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G293" t="n">
         <v>2</v>
@@ -11054,10 +11033,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F294" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11083,10 +11062,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F295" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11112,10 +11091,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F296" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11141,10 +11120,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F297" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11170,10 +11149,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F298" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11199,10 +11178,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F299" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11228,10 +11207,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F300" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11257,10 +11236,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F301" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G301" t="n">
         <v>4</v>
@@ -11286,10 +11265,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F302" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11315,10 +11294,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F303" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11344,10 +11323,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F304" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11373,10 +11352,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F305" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11402,10 +11381,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F306" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11431,10 +11410,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F307" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11460,10 +11439,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F308" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11489,10 +11468,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F309" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -11518,10 +11497,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F310" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11547,10 +11526,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F311" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11576,10 +11555,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F312" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11605,10 +11584,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F313" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11634,10 +11613,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F314" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11663,10 +11642,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F315" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11692,10 +11671,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F316" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11721,10 +11700,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F317" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G317" t="n">
         <v>2</v>
@@ -11750,10 +11729,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F318" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11779,10 +11758,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F319" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11808,10 +11787,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F320" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11837,10 +11816,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F321" t="s">
-        <v>640</v>
+        <v>285</v>
       </c>
       <c r="G321" t="n">
         <v>44</v>
@@ -11866,10 +11845,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F322" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11895,10 +11874,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F323" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11924,10 +11903,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F324" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11953,10 +11932,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F325" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11982,10 +11961,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F326" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12011,10 +11990,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F327" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12040,10 +12019,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F328" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12069,10 +12048,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F329" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -12098,10 +12077,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F330" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12127,10 +12106,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F331" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12156,10 +12135,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F332" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12185,10 +12164,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F333" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12214,10 +12193,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F334" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12243,10 +12222,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F335" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12272,10 +12251,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F336" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12301,10 +12280,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F337" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12330,10 +12309,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F338" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12359,10 +12338,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F339" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12388,10 +12367,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F340" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12417,10 +12396,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F341" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12446,10 +12425,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F342" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12475,10 +12454,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F343" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -12504,10 +12483,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F344" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12533,10 +12512,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F345" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="G345" t="n">
         <v>2</v>
@@ -12562,10 +12541,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F346" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12591,10 +12570,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F347" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12620,10 +12599,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F348" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12649,10 +12628,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F349" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12678,10 +12657,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F350" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12707,10 +12686,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F351" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12736,10 +12715,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F352" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12765,10 +12744,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F353" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12794,10 +12773,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F354" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12823,10 +12802,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F355" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12852,10 +12831,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F356" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12881,10 +12860,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F357" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12910,10 +12889,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F358" t="s">
-        <v>714</v>
+        <v>12</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12939,10 +12918,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="F359" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12968,10 +12947,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F360" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12997,10 +12976,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F361" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13026,10 +13005,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="F362" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13055,10 +13034,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F363" t="s">
-        <v>724</v>
+        <v>376</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
